--- a/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
+++ b/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\water_treatment_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C0EEEE-1F5D-4EC2-A737-D634840A70CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC99EF-1602-488F-B261-89DA17EC5E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9108" yWindow="1476" windowWidth="13044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPO 31.05.2024" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -342,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +362,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -538,6 +548,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FB7F8-B56B-4BC8-922B-275C8A34209F}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,13 +1335,13 @@
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="11"/>
@@ -1448,7 +1467,7 @@
       <c r="B39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="33" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="11"/>
@@ -1515,13 +1534,13 @@
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="131.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="11"/>

--- a/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
+++ b/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\water_treatment_controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\Projects\water_treatment_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC99EF-1602-488F-B261-89DA17EC5E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6371F7-BD74-44B0-91E0-55BB3FA71786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9108" yWindow="1476" windowWidth="13044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPO 31.05.2024" sheetId="4" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -546,17 +543,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,773 +930,773 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FB7F8-B56B-4BC8-922B-275C8A34209F}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="11.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:5" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="44.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:5" ht="44.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:5" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:5" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="24">
+      <c r="D6" s="17"/>
+      <c r="E6" s="23">
         <v>45432</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="133.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:5" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24">
+      <c r="D7" s="17"/>
+      <c r="E7" s="23">
         <v>45432</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="24">
+      <c r="D10" s="17"/>
+      <c r="E10" s="23">
         <v>45432</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="24">
+      <c r="D11" s="17"/>
+      <c r="E11" s="23">
         <v>45432</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="24">
+      <c r="D12" s="17"/>
+      <c r="E12" s="23">
         <v>45432</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:5" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" ht="124.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="D14" s="17"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="124.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="24">
+      <c r="D15" s="17"/>
+      <c r="E15" s="23">
         <v>45432</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="147.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:5" ht="147.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="218.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.35" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:5" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" ht="95.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="D22" s="10"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="95.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="111.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="D23" s="17"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="111.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="D24" s="17"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="108.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="D25" s="9"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" ht="139.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="139.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" ht="62.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="D27" s="17"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" ht="62.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="D28" s="17"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="103.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="103.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" ht="106.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" ht="106.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" s="28" customFormat="1" ht="106.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" s="27" customFormat="1" ht="106.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" ht="111.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" ht="111.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" ht="125.85" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" ht="125.85" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" ht="158.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="158.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="B42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" ht="131.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" ht="131.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
         <v>44</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
-      <c r="D77" s="11"/>
+      <c r="D77" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
+++ b/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\Projects\water_treatment_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6371F7-BD74-44B0-91E0-55BB3FA71786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD07D632-47DE-432D-A755-4160F4CE2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2055" windowWidth="19620" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPO 31.05.2024" sheetId="4" r:id="rId1"/>
@@ -306,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +339,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,25 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,10 +470,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,15 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -543,14 +522,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FB7F8-B56B-4BC8-922B-275C8A34209F}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,11 +921,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,10 +938,10 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1025,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>45432</v>
       </c>
     </row>
@@ -1040,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>45432</v>
       </c>
     </row>
@@ -1085,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>45432</v>
       </c>
     </row>
@@ -1100,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>45432</v>
       </c>
     </row>
@@ -1115,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>45432</v>
       </c>
     </row>
@@ -1130,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1145,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="124.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1158,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>45432</v>
       </c>
     </row>
@@ -1174,31 +1150,32 @@
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1224,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1239,7 +1216,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1267,7 +1244,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="111.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -1280,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" ht="108.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -1316,7 +1293,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" ht="62.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -1329,19 +1306,20 @@
         <v>46</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="103.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
@@ -1369,7 +1347,7 @@
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" s="27" customFormat="1" ht="106.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="24" customFormat="1" ht="106.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -1409,28 +1387,30 @@
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
@@ -1458,16 +1438,17 @@
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -1500,7 +1481,7 @@
       <c r="B42" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="17"/>
@@ -1531,16 +1512,17 @@
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:5" ht="131.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">

--- a/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
+++ b/проблемы с ПО 31.05.2004 (вер 1.4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\Projects\water_treatment_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD07D632-47DE-432D-A755-4160F4CE2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B422B6-A5A7-44F2-97B4-7F21C03F5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2055" windowWidth="19620" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPO 31.05.2024" sheetId="4" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,9 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -487,12 +481,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,6 +622,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F214AE-E28D-7A27-B39E-A20E26D8E2CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8505825" y="8629650"/>
+          <a:ext cx="3209925" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -906,254 +955,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FB7F8-B56B-4BC8-922B-275C8A34209F}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="11.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="44.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20">
+      <c r="D6" s="13"/>
+      <c r="E6" s="16">
         <v>45432</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20">
+      <c r="D7" s="13"/>
+      <c r="E7" s="16">
         <v>45432</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16">
         <v>45432</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20">
+      <c r="D11" s="13"/>
+      <c r="E11" s="16">
         <v>45432</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20">
+      <c r="D12" s="13"/>
+      <c r="E12" s="16">
         <v>45432</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="124.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20">
+      <c r="D15" s="13"/>
+      <c r="E15" s="16">
         <v>45432</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="147.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>15</v>
-      </c>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1165,520 +1214,522 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="20" customFormat="1" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="D19" s="13"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" ht="95.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="95.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" ht="111.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="111.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="108.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="D24" s="13"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="D25" s="13"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="139.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="62.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="103.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="106.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" s="24" customFormat="1" ht="106.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="106.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="111.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" ht="125.85" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="158.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="131.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="10"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
-      <c r="D51" s="10"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
-      <c r="D52" s="10"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
-      <c r="D53" s="10"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
-      <c r="D55" s="10"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
-      <c r="D56" s="10"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
-      <c r="D57" s="10"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
-      <c r="D58" s="10"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
-      <c r="D61" s="10"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
-      <c r="D64" s="10"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
-      <c r="D65" s="10"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
-      <c r="D66" s="10"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
-      <c r="D67" s="10"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
-      <c r="D69" s="10"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
-      <c r="D70" s="10"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
-      <c r="D71" s="10"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
-      <c r="D72" s="10"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
-      <c r="D73" s="10"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
-      <c r="D74" s="10"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
-      <c r="D75" s="10"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
-      <c r="D76" s="10"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
-      <c r="D77" s="10"/>
+      <c r="D77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
